--- a/database/industries/folad/feghadir/product/monthly.xlsx
+++ b/database/industries/folad/feghadir/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D00F5-09D7-4D12-8A4E-BCA80A941CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +431,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -489,6 +490,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,17 +710,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -740,7 +775,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +832,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -854,7 +889,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -909,7 +944,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -966,7 +1001,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1058,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1078,7 +1113,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1290,7 +1325,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1382,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>82989</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1598,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>82989</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1932,7 +1967,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1987,7 +2022,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2042,7 +2077,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2254,7 +2289,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2311,7 +2346,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>145075</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>58</v>
       </c>
@@ -2527,7 +2562,7 @@
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>62</v>
       </c>
@@ -2741,7 +2776,7 @@
       <c r="BA24" s="13"/>
       <c r="BB24" s="13"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>63</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>60</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>145075</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3110,7 +3145,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3165,7 +3200,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3220,7 +3255,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3432,7 +3467,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>64</v>
       </c>
@@ -3489,7 +3524,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -3648,7 +3683,7 @@
         <v>12464944</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>66</v>
       </c>
@@ -3705,7 +3740,7 @@
       <c r="BA34" s="13"/>
       <c r="BB34" s="13"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>59</v>
       </c>
@@ -3864,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>67</v>
       </c>
@@ -3921,7 +3956,7 @@
       <c r="BA36" s="13"/>
       <c r="BB36" s="13"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>63</v>
       </c>
@@ -4080,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
@@ -4137,7 +4172,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>69</v>
       </c>
@@ -4296,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>60</v>
       </c>
@@ -4453,7 +4488,7 @@
         <v>12464944</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4508,7 +4543,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4563,7 +4598,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4618,7 +4653,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4830,7 +4865,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>71</v>
       </c>
@@ -4887,7 +4922,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>

--- a/database/industries/folad/feghadir/product/monthly.xlsx
+++ b/database/industries/folad/feghadir/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\feghadir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D00F5-09D7-4D12-8A4E-BCA80A941CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597DE664-1A99-46B4-935A-F81B383AC94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فغدیر-آهن و فولاد غدیر ایرانیان</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>آهن اسفنجی</t>
@@ -1441,104 +1441,104 @@
       <c r="U11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
+      <c r="V11" s="11">
+        <v>63911</v>
       </c>
       <c r="W11" s="11">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="X11" s="11">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="Y11" s="11">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="Z11" s="11">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
       </c>
       <c r="AB11" s="11">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="AC11" s="11">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="AD11" s="11">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AE11" s="11">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AF11" s="11">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AG11" s="11">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AH11" s="11">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AI11" s="11">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AJ11" s="11">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AK11" s="11">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AL11" s="11">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AM11" s="11">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AN11" s="11">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AO11" s="11">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AP11" s="11">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AQ11" s="11">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AR11" s="11">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AS11" s="11">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AT11" s="11">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AU11" s="11">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AV11" s="11">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AW11" s="11">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AX11" s="11">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AY11" s="11">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AZ11" s="11">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="BA11" s="11">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="BB11" s="11">
-        <v>82989</v>
+        <v>56886</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1655,8 +1655,8 @@
       <c r="U13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="15" t="s">
-        <v>57</v>
+      <c r="V13" s="15">
+        <v>0</v>
       </c>
       <c r="W13" s="15">
         <v>0</v>
@@ -1813,103 +1813,103 @@
         <v>0</v>
       </c>
       <c r="V14" s="17">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="W14" s="17">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="X14" s="17">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="Y14" s="17">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="Z14" s="17">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="17">
         <v>0</v>
       </c>
       <c r="AB14" s="17">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="AC14" s="17">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="AD14" s="17">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AE14" s="17">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AF14" s="17">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AG14" s="17">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AH14" s="17">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AI14" s="17">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AJ14" s="17">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AK14" s="17">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AL14" s="17">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AM14" s="17">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AN14" s="17">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AO14" s="17">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AP14" s="17">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AQ14" s="17">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AR14" s="17">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AS14" s="17">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AT14" s="17">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AU14" s="17">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AV14" s="17">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AW14" s="17">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AX14" s="17">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AY14" s="17">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AZ14" s="17">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="BA14" s="17">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="BB14" s="17">
-        <v>82989</v>
+        <v>56886</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2405,104 +2405,104 @@
       <c r="U21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>57</v>
+      <c r="V21" s="11">
+        <v>29889</v>
       </c>
       <c r="W21" s="11">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="X21" s="11">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="Y21" s="11">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="Z21" s="11">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="AA21" s="11">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="AB21" s="11">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="AC21" s="11">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="AD21" s="11">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AE21" s="11">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AF21" s="11">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AG21" s="11">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AH21" s="11">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AI21" s="11">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AJ21" s="11">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AK21" s="11">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AL21" s="11">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AM21" s="11">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AN21" s="11">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AO21" s="11">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AP21" s="11">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AQ21" s="11">
-        <v>77971</v>
+        <v>81244</v>
       </c>
       <c r="AR21" s="11">
-        <v>81244</v>
+        <v>65843</v>
       </c>
       <c r="AS21" s="11">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AT21" s="11">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AU21" s="11">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AV21" s="11">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AW21" s="11">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AX21" s="11">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AY21" s="11">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AZ21" s="11">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="BA21" s="11">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="BB21" s="11">
-        <v>145075</v>
+        <v>59420</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -2619,8 +2619,8 @@
       <c r="U23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="15" t="s">
-        <v>57</v>
+      <c r="V23" s="15">
+        <v>0</v>
       </c>
       <c r="W23" s="15">
         <v>0</v>
@@ -2833,8 +2833,8 @@
       <c r="U25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="15" t="s">
-        <v>57</v>
+      <c r="V25" s="15">
+        <v>0</v>
       </c>
       <c r="W25" s="15">
         <v>0</v>
@@ -2991,103 +2991,103 @@
         <v>0</v>
       </c>
       <c r="V26" s="17">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="W26" s="17">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="X26" s="17">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="Y26" s="17">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="Z26" s="17">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="AA26" s="17">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="AB26" s="17">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="AC26" s="17">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="AD26" s="17">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AE26" s="17">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AF26" s="17">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AG26" s="17">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AH26" s="17">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AI26" s="17">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AJ26" s="17">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AK26" s="17">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AL26" s="17">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AM26" s="17">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AN26" s="17">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AO26" s="17">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AP26" s="17">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AQ26" s="17">
-        <v>77971</v>
+        <v>81244</v>
       </c>
       <c r="AR26" s="17">
-        <v>81244</v>
+        <v>65843</v>
       </c>
       <c r="AS26" s="17">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AT26" s="17">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AU26" s="17">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AV26" s="17">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AW26" s="17">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AX26" s="17">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AY26" s="17">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AZ26" s="17">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="BA26" s="17">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="BB26" s="17">
-        <v>145075</v>
+        <v>59420</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3583,104 +3583,104 @@
       <c r="U33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>57</v>
+      <c r="V33" s="11">
+        <v>831679</v>
       </c>
       <c r="W33" s="11">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="X33" s="11">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="Y33" s="11">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="Z33" s="11">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="AA33" s="11">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="AB33" s="11">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="AC33" s="11">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="AD33" s="11">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AE33" s="11">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AF33" s="11">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AG33" s="11">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AH33" s="11">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AI33" s="11">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AJ33" s="11">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AK33" s="11">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AL33" s="11">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AM33" s="11">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AN33" s="11">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AO33" s="11">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AP33" s="11">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AQ33" s="11">
-        <v>7077241</v>
+        <v>6991010</v>
       </c>
       <c r="AR33" s="11">
-        <v>6991010</v>
+        <v>6132312</v>
       </c>
       <c r="AS33" s="11">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AT33" s="11">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AU33" s="11">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AV33" s="11">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AW33" s="11">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AX33" s="11">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AY33" s="11">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AZ33" s="11">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="BA33" s="11">
-        <v>7811942</v>
+        <v>11427424</v>
       </c>
       <c r="BB33" s="11">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -3799,8 +3799,8 @@
       <c r="U35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="15" t="s">
-        <v>57</v>
+      <c r="V35" s="15">
+        <v>0</v>
       </c>
       <c r="W35" s="15">
         <v>0</v>
@@ -4015,8 +4015,8 @@
       <c r="U37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V37" s="15" t="s">
-        <v>57</v>
+      <c r="V37" s="15">
+        <v>0</v>
       </c>
       <c r="W37" s="15">
         <v>0</v>
@@ -4231,8 +4231,8 @@
       <c r="U39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V39" s="11" t="s">
-        <v>57</v>
+      <c r="V39" s="11">
+        <v>0</v>
       </c>
       <c r="W39" s="11">
         <v>0</v>
@@ -4389,103 +4389,103 @@
         <v>0</v>
       </c>
       <c r="V40" s="17">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="W40" s="17">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="X40" s="17">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="Y40" s="17">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="Z40" s="17">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="AA40" s="17">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="AB40" s="17">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="AC40" s="17">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="AD40" s="17">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AE40" s="17">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AF40" s="17">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AG40" s="17">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AH40" s="17">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AI40" s="17">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AJ40" s="17">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AK40" s="17">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AL40" s="17">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AM40" s="17">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AN40" s="17">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AO40" s="17">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AP40" s="17">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AQ40" s="17">
-        <v>7077241</v>
+        <v>6991010</v>
       </c>
       <c r="AR40" s="17">
-        <v>6991010</v>
+        <v>6132312</v>
       </c>
       <c r="AS40" s="17">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AT40" s="17">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AU40" s="17">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AV40" s="17">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AW40" s="17">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AX40" s="17">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AY40" s="17">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AZ40" s="17">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="BA40" s="17">
-        <v>7811942</v>
+        <v>11427424</v>
       </c>
       <c r="BB40" s="17">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4981,104 +4981,104 @@
       <c r="U47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="11" t="s">
-        <v>57</v>
+      <c r="V47" s="11">
+        <v>27825588</v>
       </c>
       <c r="W47" s="11">
-        <v>27825588</v>
+        <v>27677473</v>
       </c>
       <c r="X47" s="11">
-        <v>27677473</v>
+        <v>26831460</v>
       </c>
       <c r="Y47" s="11">
-        <v>26831460</v>
+        <v>40134630</v>
       </c>
       <c r="Z47" s="11">
-        <v>40134630</v>
+        <v>31144200</v>
       </c>
       <c r="AA47" s="11">
-        <v>31144200</v>
+        <v>36726825</v>
       </c>
       <c r="AB47" s="11">
-        <v>36726825</v>
+        <v>53529302</v>
       </c>
       <c r="AC47" s="11">
-        <v>53529302</v>
+        <v>53886918</v>
       </c>
       <c r="AD47" s="11">
-        <v>53886918</v>
+        <v>49527782</v>
       </c>
       <c r="AE47" s="11">
-        <v>49527782</v>
+        <v>61916968</v>
       </c>
       <c r="AF47" s="11">
-        <v>61916968</v>
+        <v>66552907</v>
       </c>
       <c r="AG47" s="11">
-        <v>66552907</v>
+        <v>69817031</v>
       </c>
       <c r="AH47" s="11">
-        <v>69817031</v>
+        <v>72043243</v>
       </c>
       <c r="AI47" s="11">
-        <v>72043243</v>
+        <v>73536303</v>
       </c>
       <c r="AJ47" s="11">
-        <v>73536303</v>
+        <v>79547049</v>
       </c>
       <c r="AK47" s="11">
-        <v>79547049</v>
+        <v>84927020</v>
       </c>
       <c r="AL47" s="11">
-        <v>84927020</v>
+        <v>85321821</v>
       </c>
       <c r="AM47" s="11">
-        <v>85321821</v>
+        <v>82853218</v>
       </c>
       <c r="AN47" s="11">
-        <v>82853218</v>
+        <v>81605322</v>
       </c>
       <c r="AO47" s="11">
-        <v>81605322</v>
+        <v>86519737</v>
       </c>
       <c r="AP47" s="11">
-        <v>86519737</v>
+        <v>90767489</v>
       </c>
       <c r="AQ47" s="11">
-        <v>90767489</v>
+        <v>85048593</v>
       </c>
       <c r="AR47" s="11">
-        <v>85048593</v>
+        <v>93135367</v>
       </c>
       <c r="AS47" s="11">
-        <v>93135367</v>
+        <v>94199909</v>
       </c>
       <c r="AT47" s="11">
-        <v>94199909</v>
+        <v>100875544</v>
       </c>
       <c r="AU47" s="11">
-        <v>100875544</v>
+        <v>102264649</v>
       </c>
       <c r="AV47" s="11">
-        <v>102264649</v>
+        <v>89721528</v>
       </c>
       <c r="AW47" s="11">
-        <v>89721528</v>
+        <v>79999652</v>
       </c>
       <c r="AX47" s="11">
-        <v>79999652</v>
+        <v>71190574</v>
       </c>
       <c r="AY47" s="11">
-        <v>71190574</v>
+        <v>73046177</v>
       </c>
       <c r="AZ47" s="11">
-        <v>73046177</v>
+        <v>74525076</v>
       </c>
       <c r="BA47" s="11">
-        <v>74525076</v>
+        <v>78769078</v>
       </c>
       <c r="BB47" s="11">
-        <v>85920689</v>
+        <v>84447509</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/feghadir/product/monthly.xlsx
+++ b/database/industries/folad/feghadir/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="73">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,6 +81,446 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1397/12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1398/10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">11 </t>
     </r>
     <r>
@@ -100,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -140,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -180,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -220,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -260,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -300,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -340,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -380,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -420,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -460,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -500,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -540,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -580,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -620,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -660,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -700,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -740,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -780,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -820,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -860,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -900,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -940,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -980,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1020,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1060,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1100,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1140,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1180,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1220,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1260,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1300,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1340,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1380,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1420,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1460,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1500,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1540,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -1580,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -1620,447 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/04</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/06</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/07</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/08</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/09</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3230,116 +3230,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>63911</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="W11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>82989</v>
+        <v>56886</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>56886</v>
+        <v>22601</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>22601</v>
+        <v>23513</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>23513</v>
+        <v>81896</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>81896</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,8 +3444,8 @@
       <c r="Q13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>57</v>
+      <c r="R13" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S13" s="17" t="n">
         <v>0</v>
@@ -3602,115 +3602,115 @@
         <v>0</v>
       </c>
       <c r="R14" s="19" t="n">
-        <v>0</v>
+        <v>63911</v>
       </c>
       <c r="S14" s="19" t="n">
-        <v>63911</v>
+        <v>51008</v>
       </c>
       <c r="T14" s="19" t="n">
-        <v>51008</v>
+        <v>66609</v>
       </c>
       <c r="U14" s="19" t="n">
-        <v>66609</v>
+        <v>63727</v>
       </c>
       <c r="V14" s="19" t="n">
-        <v>63727</v>
+        <v>0</v>
       </c>
       <c r="W14" s="19" t="n">
         <v>0</v>
       </c>
       <c r="X14" s="19" t="n">
-        <v>0</v>
+        <v>64490</v>
       </c>
       <c r="Y14" s="19" t="n">
-        <v>64490</v>
+        <v>80003</v>
       </c>
       <c r="Z14" s="19" t="n">
-        <v>80003</v>
+        <v>83217</v>
       </c>
       <c r="AA14" s="19" t="n">
-        <v>83217</v>
+        <v>77663</v>
       </c>
       <c r="AB14" s="19" t="n">
-        <v>77663</v>
+        <v>87442</v>
       </c>
       <c r="AC14" s="19" t="n">
-        <v>87442</v>
+        <v>83857</v>
       </c>
       <c r="AD14" s="19" t="n">
-        <v>83857</v>
+        <v>88158</v>
       </c>
       <c r="AE14" s="19" t="n">
-        <v>88158</v>
+        <v>87294</v>
       </c>
       <c r="AF14" s="19" t="n">
-        <v>87294</v>
+        <v>85127</v>
       </c>
       <c r="AG14" s="19" t="n">
-        <v>85127</v>
+        <v>48031</v>
       </c>
       <c r="AH14" s="19" t="n">
-        <v>48031</v>
+        <v>77015</v>
       </c>
       <c r="AI14" s="19" t="n">
-        <v>77015</v>
+        <v>83927</v>
       </c>
       <c r="AJ14" s="19" t="n">
-        <v>83927</v>
+        <v>79756</v>
       </c>
       <c r="AK14" s="19" t="n">
-        <v>79756</v>
+        <v>80918</v>
       </c>
       <c r="AL14" s="19" t="n">
-        <v>80918</v>
+        <v>85387</v>
       </c>
       <c r="AM14" s="19" t="n">
-        <v>85387</v>
+        <v>69078</v>
       </c>
       <c r="AN14" s="19" t="n">
-        <v>69078</v>
+        <v>27828</v>
       </c>
       <c r="AO14" s="19" t="n">
-        <v>27828</v>
+        <v>83141</v>
       </c>
       <c r="AP14" s="19" t="n">
-        <v>83141</v>
+        <v>86304</v>
       </c>
       <c r="AQ14" s="19" t="n">
-        <v>86304</v>
+        <v>90160</v>
       </c>
       <c r="AR14" s="19" t="n">
-        <v>90160</v>
+        <v>82522</v>
       </c>
       <c r="AS14" s="19" t="n">
-        <v>82522</v>
+        <v>39600</v>
       </c>
       <c r="AT14" s="19" t="n">
-        <v>39600</v>
+        <v>60253</v>
       </c>
       <c r="AU14" s="19" t="n">
-        <v>60253</v>
+        <v>85775</v>
       </c>
       <c r="AV14" s="19" t="n">
-        <v>85775</v>
+        <v>90254</v>
       </c>
       <c r="AW14" s="19" t="n">
-        <v>90254</v>
+        <v>82989</v>
       </c>
       <c r="AX14" s="19" t="n">
-        <v>82989</v>
+        <v>56886</v>
       </c>
       <c r="AY14" s="19" t="n">
-        <v>56886</v>
+        <v>22601</v>
       </c>
       <c r="AZ14" s="19" t="n">
-        <v>22601</v>
+        <v>23513</v>
       </c>
       <c r="BA14" s="19" t="n">
-        <v>23513</v>
+        <v>81896</v>
       </c>
       <c r="BB14" s="19" t="n">
-        <v>81896</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,116 +4194,116 @@
       <c r="Q21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>57</v>
+      <c r="R21" s="13" t="n">
+        <v>29889</v>
       </c>
       <c r="S21" s="13" t="n">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="T21" s="13" t="n">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="U21" s="13" t="n">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="X21" s="13" t="n">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="Y21" s="13" t="n">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="Z21" s="13" t="n">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AA21" s="13" t="n">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AD21" s="13" t="n">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>77971</v>
+        <v>70761</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>70761</v>
+        <v>65843</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>145075</v>
+        <v>59420</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>59420</v>
+        <v>23279</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>23279</v>
+        <v>15813</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>15813</v>
+        <v>70974</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>70974</v>
+        <v>83432</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,8 +4408,8 @@
       <c r="Q23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>57</v>
+      <c r="R23" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S23" s="17" t="n">
         <v>0</v>
@@ -4622,8 +4622,8 @@
       <c r="Q25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>57</v>
+      <c r="R25" s="17" t="n">
+        <v>0</v>
       </c>
       <c r="S25" s="17" t="n">
         <v>0</v>
@@ -4780,115 +4780,115 @@
         <v>0</v>
       </c>
       <c r="R26" s="19" t="n">
-        <v>0</v>
+        <v>29889</v>
       </c>
       <c r="S26" s="19" t="n">
-        <v>29889</v>
+        <v>48489</v>
       </c>
       <c r="T26" s="19" t="n">
-        <v>48489</v>
+        <v>78296</v>
       </c>
       <c r="U26" s="19" t="n">
-        <v>78296</v>
+        <v>64042</v>
       </c>
       <c r="V26" s="19" t="n">
-        <v>64042</v>
+        <v>5000</v>
       </c>
       <c r="W26" s="19" t="n">
-        <v>5000</v>
+        <v>36548</v>
       </c>
       <c r="X26" s="19" t="n">
-        <v>36548</v>
+        <v>42966</v>
       </c>
       <c r="Y26" s="19" t="n">
-        <v>42966</v>
+        <v>40590</v>
       </c>
       <c r="Z26" s="19" t="n">
-        <v>40590</v>
+        <v>103681</v>
       </c>
       <c r="AA26" s="19" t="n">
-        <v>103681</v>
+        <v>71792</v>
       </c>
       <c r="AB26" s="19" t="n">
-        <v>71792</v>
+        <v>92965</v>
       </c>
       <c r="AC26" s="19" t="n">
-        <v>92965</v>
+        <v>81418</v>
       </c>
       <c r="AD26" s="19" t="n">
-        <v>81418</v>
+        <v>74579</v>
       </c>
       <c r="AE26" s="19" t="n">
-        <v>74579</v>
+        <v>104771</v>
       </c>
       <c r="AF26" s="19" t="n">
-        <v>104771</v>
+        <v>78291</v>
       </c>
       <c r="AG26" s="19" t="n">
-        <v>78291</v>
+        <v>62798</v>
       </c>
       <c r="AH26" s="19" t="n">
-        <v>62798</v>
+        <v>39898</v>
       </c>
       <c r="AI26" s="19" t="n">
-        <v>39898</v>
+        <v>50810</v>
       </c>
       <c r="AJ26" s="19" t="n">
-        <v>50810</v>
+        <v>78697</v>
       </c>
       <c r="AK26" s="19" t="n">
-        <v>78697</v>
+        <v>115876</v>
       </c>
       <c r="AL26" s="19" t="n">
-        <v>115876</v>
+        <v>77971</v>
       </c>
       <c r="AM26" s="19" t="n">
-        <v>77971</v>
+        <v>70761</v>
       </c>
       <c r="AN26" s="19" t="n">
-        <v>70761</v>
+        <v>65843</v>
       </c>
       <c r="AO26" s="19" t="n">
-        <v>65843</v>
+        <v>81557</v>
       </c>
       <c r="AP26" s="19" t="n">
-        <v>81557</v>
+        <v>50347</v>
       </c>
       <c r="AQ26" s="19" t="n">
-        <v>50347</v>
+        <v>38451</v>
       </c>
       <c r="AR26" s="19" t="n">
-        <v>38451</v>
+        <v>36018</v>
       </c>
       <c r="AS26" s="19" t="n">
-        <v>36018</v>
+        <v>51760</v>
       </c>
       <c r="AT26" s="19" t="n">
-        <v>51760</v>
+        <v>45342</v>
       </c>
       <c r="AU26" s="19" t="n">
-        <v>45342</v>
+        <v>141045</v>
       </c>
       <c r="AV26" s="19" t="n">
-        <v>141045</v>
+        <v>104823</v>
       </c>
       <c r="AW26" s="19" t="n">
-        <v>104823</v>
+        <v>145075</v>
       </c>
       <c r="AX26" s="19" t="n">
-        <v>145075</v>
+        <v>59420</v>
       </c>
       <c r="AY26" s="19" t="n">
-        <v>59420</v>
+        <v>23279</v>
       </c>
       <c r="AZ26" s="19" t="n">
-        <v>23279</v>
+        <v>15813</v>
       </c>
       <c r="BA26" s="19" t="n">
-        <v>15813</v>
+        <v>70974</v>
       </c>
       <c r="BB26" s="19" t="n">
-        <v>70974</v>
+        <v>83432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,116 +5372,116 @@
       <c r="Q33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="13" t="s">
-        <v>57</v>
+      <c r="R33" s="13" t="n">
+        <v>831679</v>
       </c>
       <c r="S33" s="13" t="n">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="T33" s="13" t="n">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>7077241</v>
+        <v>6006461</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>6006461</v>
+        <v>6132312</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>7811942</v>
+        <v>12464944</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>5017871</v>
+        <v>2581558</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>2581558</v>
+        <v>1700715</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>1700715</v>
+        <v>8706967</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>8706967</v>
+        <v>9326834</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,8 +5588,8 @@
       <c r="Q35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="17" t="s">
-        <v>57</v>
+      <c r="R35" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S35" s="20" t="n">
         <v>0</v>
@@ -5804,8 +5804,8 @@
       <c r="Q37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>57</v>
+      <c r="R37" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S37" s="20" t="n">
         <v>0</v>
@@ -6020,8 +6020,8 @@
       <c r="Q39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="13" t="s">
-        <v>57</v>
+      <c r="R39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S39" s="13" t="n">
         <v>0</v>
@@ -6178,115 +6178,115 @@
         <v>0</v>
       </c>
       <c r="R40" s="19" t="n">
-        <v>0</v>
+        <v>831679</v>
       </c>
       <c r="S40" s="19" t="n">
-        <v>831679</v>
+        <v>1342053</v>
       </c>
       <c r="T40" s="19" t="n">
-        <v>1342053</v>
+        <v>2100796</v>
       </c>
       <c r="U40" s="19" t="n">
-        <v>2100796</v>
+        <v>2570302</v>
       </c>
       <c r="V40" s="19" t="n">
-        <v>2570302</v>
+        <v>155721</v>
       </c>
       <c r="W40" s="19" t="n">
-        <v>155721</v>
+        <v>1342292</v>
       </c>
       <c r="X40" s="19" t="n">
-        <v>1342292</v>
+        <v>2299940</v>
       </c>
       <c r="Y40" s="19" t="n">
-        <v>2299940</v>
+        <v>2187270</v>
       </c>
       <c r="Z40" s="19" t="n">
-        <v>2187270</v>
+        <v>5135090</v>
       </c>
       <c r="AA40" s="19" t="n">
-        <v>5135090</v>
+        <v>4445143</v>
       </c>
       <c r="AB40" s="19" t="n">
-        <v>4445143</v>
+        <v>6187091</v>
       </c>
       <c r="AC40" s="19" t="n">
-        <v>6187091</v>
+        <v>5684363</v>
       </c>
       <c r="AD40" s="19" t="n">
-        <v>5684363</v>
+        <v>5372913</v>
       </c>
       <c r="AE40" s="19" t="n">
-        <v>5372913</v>
+        <v>7704472</v>
       </c>
       <c r="AF40" s="19" t="n">
-        <v>7704472</v>
+        <v>6227818</v>
       </c>
       <c r="AG40" s="19" t="n">
-        <v>6227818</v>
+        <v>5333247</v>
       </c>
       <c r="AH40" s="19" t="n">
-        <v>5333247</v>
+        <v>3404170</v>
       </c>
       <c r="AI40" s="19" t="n">
-        <v>3404170</v>
+        <v>4209772</v>
       </c>
       <c r="AJ40" s="19" t="n">
-        <v>4209772</v>
+        <v>6422094</v>
       </c>
       <c r="AK40" s="19" t="n">
-        <v>6422094</v>
+        <v>10025561</v>
       </c>
       <c r="AL40" s="19" t="n">
-        <v>10025561</v>
+        <v>7077241</v>
       </c>
       <c r="AM40" s="19" t="n">
-        <v>7077241</v>
+        <v>6006461</v>
       </c>
       <c r="AN40" s="19" t="n">
-        <v>6006461</v>
+        <v>6132312</v>
       </c>
       <c r="AO40" s="19" t="n">
-        <v>6132312</v>
+        <v>7682662</v>
       </c>
       <c r="AP40" s="19" t="n">
-        <v>7682662</v>
+        <v>5078781</v>
       </c>
       <c r="AQ40" s="19" t="n">
-        <v>5078781</v>
+        <v>3932178</v>
       </c>
       <c r="AR40" s="19" t="n">
-        <v>3932178</v>
+        <v>3231590</v>
       </c>
       <c r="AS40" s="19" t="n">
-        <v>3231590</v>
+        <v>4140782</v>
       </c>
       <c r="AT40" s="19" t="n">
-        <v>4140782</v>
+        <v>3227923</v>
       </c>
       <c r="AU40" s="19" t="n">
-        <v>3227923</v>
+        <v>10302798</v>
       </c>
       <c r="AV40" s="19" t="n">
-        <v>10302798</v>
+        <v>7811942</v>
       </c>
       <c r="AW40" s="19" t="n">
-        <v>7811942</v>
+        <v>12464944</v>
       </c>
       <c r="AX40" s="19" t="n">
-        <v>12464944</v>
+        <v>5017871</v>
       </c>
       <c r="AY40" s="19" t="n">
-        <v>5017871</v>
+        <v>2581558</v>
       </c>
       <c r="AZ40" s="19" t="n">
-        <v>2581558</v>
+        <v>1700715</v>
       </c>
       <c r="BA40" s="19" t="n">
-        <v>1700715</v>
+        <v>8706967</v>
       </c>
       <c r="BB40" s="19" t="n">
-        <v>8706967</v>
+        <v>9326834</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,116 +6770,116 @@
       <c r="Q47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="13" t="s">
-        <v>57</v>
+      <c r="R47" s="13" t="n">
+        <v>27825588</v>
       </c>
       <c r="S47" s="13" t="n">
-        <v>27825588</v>
+        <v>27677473</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>27677473</v>
+        <v>26831460</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>26831460</v>
+        <v>40134630</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>40134630</v>
+        <v>31144200</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>31144200</v>
+        <v>36726825</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>36726825</v>
+        <v>53529302</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>53529302</v>
+        <v>53886918</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>53886918</v>
+        <v>49527782</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>49527782</v>
+        <v>61916968</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>61916968</v>
+        <v>66552907</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>66552907</v>
+        <v>69817031</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>69817031</v>
+        <v>72043243</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>72043243</v>
+        <v>73536303</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>73536303</v>
+        <v>79547049</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>79547049</v>
+        <v>84927020</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>84927020</v>
+        <v>85321821</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>85321821</v>
+        <v>82853218</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>82853218</v>
+        <v>81605322</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>81605322</v>
+        <v>86519737</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>86519737</v>
+        <v>90767489</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>90767489</v>
+        <v>84883778</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>84883778</v>
+        <v>93135367</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>93135367</v>
+        <v>94199909</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>94199909</v>
+        <v>100875544</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>100875544</v>
+        <v>102264649</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>102264649</v>
+        <v>89721528</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>89721528</v>
+        <v>79999652</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>79999652</v>
+        <v>71190574</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>71190574</v>
+        <v>73046177</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>73046177</v>
+        <v>74525076</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>74525076</v>
+        <v>85920689</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>85920689</v>
+        <v>84447509</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>84447509</v>
+        <v>110896430</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>110896430</v>
+        <v>107551698</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>107551698</v>
+        <v>122678262</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>122678262</v>
+        <v>111789649</v>
       </c>
     </row>
   </sheetData>
